--- a/experiment_templates/NOMADS_PCR_Worksheet.xlsx
+++ b/experiment_templates/NOMADS_PCR_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\experiment_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A73253C-C1FE-43C1-8B92-F252F5A549E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00EB2B1-09AD-496E-AAAF-5E51DA4B2150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -59,30 +59,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="233">
   <si>
     <t>Assumptions</t>
   </si>
@@ -947,6 +925,9 @@
       </rPr>
       <t>' tab. Paste Special with Transpose if converting from list to rows:</t>
     </r>
+  </si>
+  <si>
+    <t>(first last)</t>
   </si>
 </sst>
 </file>
@@ -1630,60 +1611,70 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -1716,40 +1707,34 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1772,10 +1757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2704,7 +2685,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2713,226 +2694,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="K2" s="87" t="s">
+      <c r="H2" s="69"/>
+      <c r="K2" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="87"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
       <c r="G3" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="88"/>
+      <c r="L3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="91" t="str" cm="1">
-        <f t="array" ref="C4">IF(ISBLANK(user_name),"",_xlfn.CONCAT(LEFT(_xlfn.TEXTSPLIT(TRIM(user_name)," "),1)))</f>
-        <v/>
-      </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4"/>
-      <c r="K4" s="89" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="89"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="L5" s="90"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="84" t="str">
+      <c r="B7" s="79"/>
+      <c r="C7" s="87" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C5)),"",CONCATENATE("PC",user_initials,C5))</f>
         <v/>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="85" t="str">
+      <c r="B8" s="79"/>
+      <c r="C8" s="88" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C7)=0),"",CONCATENATE(C2,"_",C7))</f>
         <v/>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95" t="str">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72" t="str">
         <f>IF(OR(LEN(C8)=0,LEN(exp_summary)=0),"",CONCATENATE(C8,"_",exp_summary))</f>
         <v/>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="98">
+      <c r="B10" s="79"/>
+      <c r="C10" s="75">
         <f>COUNTA(PCR!E4:E99)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="14" t="s">
         <v>225</v>
       </c>
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="75" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
       <c r="G12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="24"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8"/>
@@ -2959,25 +2939,25 @@
       <c r="H16"/>
     </row>
     <row r="17" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="76" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76" t="str">
+      <c r="E17" s="81"/>
+      <c r="F17" s="81" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x0 (µl)</v>
       </c>
-      <c r="G17" s="76"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="8"/>
-      <c r="J17" s="100" t="s">
+      <c r="J17" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="100"/>
+      <c r="K17" s="82"/>
       <c r="L17" s="31" t="s">
         <v>12</v>
       </c>
@@ -2986,26 +2966,26 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="69">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="102">
         <v>8</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="68" t="s">
+      <c r="E18" s="102"/>
+      <c r="F18" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="101"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="71">
+      <c r="J18" s="98">
         <f>Reference!E69</f>
         <v>95</v>
       </c>
-      <c r="K18" s="71"/>
+      <c r="K18" s="98"/>
       <c r="L18" s="33" t="str">
         <f>Reference!F69</f>
         <v>∞</v>
@@ -3016,29 +2996,29 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="66" t="str">
+      <c r="A19" s="77" t="str">
         <f>Reference!E32</f>
         <v>KAPA HiFI ReadyMix (2x)</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="70">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="76">
         <f>Reference!F32</f>
         <v>15.5</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="67">
+      <c r="E19" s="76"/>
+      <c r="F19" s="97">
         <f>IFERROR(SUM(D19*exp_rxns*(1+$D$16)),"")</f>
         <v>0</v>
       </c>
-      <c r="G19" s="67"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
-      <c r="J19" s="71">
+      <c r="J19" s="98">
         <f>Reference!E70</f>
         <v>95</v>
       </c>
-      <c r="K19" s="71"/>
+      <c r="K19" s="98"/>
       <c r="L19" s="33" t="str">
         <f>Reference!F70</f>
         <v>3 min</v>
@@ -3049,29 +3029,29 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="66" t="str">
+      <c r="A20" s="77" t="str">
         <f>Reference!E33</f>
         <v>Primer pool (10 μM)</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="70">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="76">
         <f>Reference!F33</f>
         <v>1.5</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="67">
+      <c r="E20" s="76"/>
+      <c r="F20" s="97">
         <f>IFERROR(SUM(D20*exp_rxns*(1+$D$16)),"")</f>
         <v>0</v>
       </c>
-      <c r="G20" s="67"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="71">
+      <c r="J20" s="98">
         <f>Reference!E71</f>
         <v>98</v>
       </c>
-      <c r="K20" s="71"/>
+      <c r="K20" s="98"/>
       <c r="L20" s="33" t="str">
         <f>Reference!F71</f>
         <v>20 sec</v>
@@ -3082,29 +3062,29 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="66" t="str">
+      <c r="A21" s="77" t="str">
         <f>Reference!E34</f>
         <v>Water</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="70">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="76">
         <f>Reference!F34</f>
         <v>0</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="67">
+      <c r="E21" s="76"/>
+      <c r="F21" s="97">
         <f>IFERROR(SUM(D21*exp_rxns*(1+$D$16)),"")</f>
         <v>0</v>
       </c>
-      <c r="G21" s="67"/>
+      <c r="G21" s="97"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
-      <c r="J21" s="71">
+      <c r="J21" s="98">
         <f>Reference!E72</f>
         <v>60</v>
       </c>
-      <c r="K21" s="71"/>
+      <c r="K21" s="98"/>
       <c r="L21" s="33" t="str">
         <f>Reference!F72</f>
         <v>3 min</v>
@@ -3115,29 +3095,29 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="66" t="str">
+      <c r="A22" s="77" t="str">
         <f>Reference!E35</f>
         <v>-</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="70">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="76">
         <f>Reference!F35</f>
         <v>0</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="67">
+      <c r="E22" s="76"/>
+      <c r="F22" s="97">
         <f>IFERROR(SUM(D22*exp_rxns*(1+$D$16)),"")</f>
         <v>0</v>
       </c>
-      <c r="G22" s="67"/>
+      <c r="G22" s="97"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="71">
+      <c r="J22" s="98">
         <f>Reference!E73</f>
         <v>60</v>
       </c>
-      <c r="K22" s="71"/>
+      <c r="K22" s="98"/>
       <c r="L22" s="33" t="str">
         <f>Reference!F73</f>
         <v>10 min</v>
@@ -3148,28 +3128,28 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="66" t="str">
+      <c r="A23" s="77" t="str">
         <f>Reference!E36</f>
         <v>-</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="70">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="76">
         <f>Reference!F36</f>
         <v>0</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="67">
+      <c r="E23" s="76"/>
+      <c r="F23" s="97">
         <f>IFERROR(SUM(D23*exp_rxns*(1+$D$16)),"")</f>
         <v>0</v>
       </c>
-      <c r="G23" s="67"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="8"/>
-      <c r="J23" s="71">
+      <c r="J23" s="98">
         <f>Reference!E74</f>
         <v>8</v>
       </c>
-      <c r="K23" s="71"/>
+      <c r="K23" s="98"/>
       <c r="L23" s="33" t="str">
         <f>Reference!F74</f>
         <v>∞</v>
@@ -3183,22 +3163,22 @@
       <c r="C24" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="99">
         <f>IF(SUM(D18:E23)=0,"",SUM(D18:E23))</f>
         <v>25</v>
       </c>
-      <c r="E24" s="64"/>
+      <c r="E24" s="99"/>
       <c r="F24" s="35" t="str">
         <f>CONCATENATE("Add ",SUM(D19:D23)," µl of MM to each well")</f>
         <v>Add 17 µl of MM to each well</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="8"/>
-      <c r="J24" s="71">
+      <c r="J24" s="98">
         <f>Reference!E75</f>
         <v>0</v>
       </c>
-      <c r="K24" s="71"/>
+      <c r="K24" s="98"/>
       <c r="L24" s="33">
         <f>Reference!F75</f>
         <v>0</v>
@@ -3209,22 +3189,22 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="71" t="str">
+      <c r="A25" s="98" t="str">
         <f>_xlfn.CONCAT("(If dispensing MM from an 8-well strip tube with a multichannel, add ",ROUND((SUM(F18:G23)/8),0)," µl of MM to each strip tube well)")</f>
         <v>(If dispensing MM from an 8-well strip tube with a multichannel, add 0 µl of MM to each strip tube well)</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
     </row>
     <row r="26" spans="1:13">
       <c r="D26" s="34"/>
@@ -3254,28 +3234,28 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
@@ -3288,11 +3268,11 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="8"/>
-      <c r="K30" s="74" t="s">
+      <c r="K30" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
@@ -3314,10 +3294,10 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="92" t="s">
+      <c r="F32" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="92"/>
+      <c r="G32" s="68"/>
       <c r="H32"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
@@ -3788,8 +3768,56 @@
       <c r="B42" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="65">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="F32:G32"/>
@@ -3806,55 +3834,6 @@
     <mergeCell ref="C13:K14"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:M25"/>
   </mergeCells>
   <conditionalFormatting sqref="A21:C23">
     <cfRule type="expression" dxfId="12" priority="9">
@@ -3975,25 +3954,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="47.4" thickBot="1">
       <c r="A3" s="39" t="s">
@@ -6434,12 +6413,12 @@
       <c r="D100" s="12">
         <v>1</v>
       </c>
-      <c r="E100" s="106" t="s">
+      <c r="E100" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="F100" s="106"/>
-      <c r="G100" s="106"/>
-      <c r="H100" s="106"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
       <c r="I100"/>
     </row>
     <row r="101" spans="1:10">
@@ -6648,7 +6627,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="42" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="65" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6658,17 +6637,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.4">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="64" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="23.4">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="64" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23.4">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="64" t="s">
         <v>231</v>
       </c>
     </row>
